--- a/Spring_Event_Feedback_Survey.xlsx
+++ b/Spring_Event_Feedback_Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djibr\Documents\Projects\Tribe_data_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55FFA1-C3F7-4C6F-9D85-B71A9D848804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B71ED2-D22D-49EB-B8F9-58A7C55DACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -739,13 +739,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1132,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
@@ -1731,28 +1728,28 @@
       <c r="C19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>72</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1766,25 +1763,25 @@
       <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1798,22 +1795,22 @@
       <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1827,22 +1824,22 @@
       <c r="C22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1856,7 +1853,7 @@
       <c r="C23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1865,10 +1862,10 @@
       <c r="G23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="22">
+      <c r="H23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1882,25 +1879,25 @@
       <c r="C24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1914,7 +1911,7 @@
       <c r="C25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1923,10 +1920,10 @@
       <c r="G25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="22">
+      <c r="H25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1940,7 +1937,7 @@
       <c r="C26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1949,10 +1946,10 @@
       <c r="G26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -1966,7 +1963,7 @@
       <c r="C27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1978,13 +1975,13 @@
       <c r="G27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="20" t="s">
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -1998,7 +1995,7 @@
       <c r="C28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -2010,10 +2007,10 @@
       <c r="G28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="22">
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2027,7 +2024,7 @@
       <c r="C29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2039,13 +2036,13 @@
       <c r="G29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="H29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="C30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2068,13 +2065,13 @@
       <c r="G30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="20" t="s">
+      <c r="H30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>45552</v>
       </c>
     </row>
@@ -2088,7 +2085,7 @@
       <c r="C31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -2097,13 +2094,13 @@
       <c r="G31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2117,7 +2114,7 @@
       <c r="C32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2129,13 +2126,13 @@
       <c r="G32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="H32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2149,7 +2146,7 @@
       <c r="C33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2158,10 +2155,10 @@
       <c r="G33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2175,7 +2172,7 @@
       <c r="C34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -2184,10 +2181,10 @@
       <c r="G34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="22">
+      <c r="H34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2201,7 +2198,7 @@
       <c r="C35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -2213,10 +2210,10 @@
       <c r="G35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2230,7 +2227,7 @@
       <c r="C36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2242,13 +2239,13 @@
       <c r="G36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="20" t="s">
+      <c r="H36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>45561</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
       <c r="C37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -2274,13 +2271,13 @@
       <c r="G37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="20" t="s">
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>45552</v>
       </c>
     </row>
